--- a/kafka/kafkaNote.xlsx
+++ b/kafka/kafkaNote.xlsx
@@ -1,23 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DCC8A1-8C4F-4281-8259-10B25F7C4B9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持多订阅模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持队列模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费组内部实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.解决负载均衡并发问题，消费组内消息只有一个进程可以使用
+2.通过主题分片存储解决，将片区分给不同消费者，从而保证同一片区内的消息有序性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.消息系统
+2.存储系统
+3.流处理
+4.批处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用案例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.消息系统
+2.跟踪网站活动
+3.用于监控数据
+4.日志聚合
+5.采集日志
+6.提交日志
+7.流处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +97,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,23 +136,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +257,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,37 +501,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="58.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kafka/kafkaNote.xlsx
+++ b/kafka/kafkaNote.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DCC8A1-8C4F-4281-8259-10B25F7C4B9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10576EE-4895-4A90-8B7F-F7D45DB58B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,24 +64,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.消息系统
-2.存储系统
-3.流处理
-4.批处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用案例</t>
+    <t>缺点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.由于批量发送，数据并非真正的实时
+2.mqtt协议（消息队列遥感传输层协议，属于应用层协议）不支持
+3.不支持物联网传感数据直接接入
+4.仅支持同一分区内消息有序，不支持全局消息有序
+5.监控不完善，需要安装插件 
+6.依赖zookeeper进行元数据管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.高吞吐量，低延迟，kafka每秒可以处理几十万条消息，它的延迟最低只有几毫秒
+2.可扩展性，kafka集群支持热扩展
+3.持久性，可靠性，消息被持久化到本地磁盘，支持数据备份防止数据丢失
+4.容错性，允许集群中节点故障（若集群节点为n，允许n-1个节点故障）
+5.高并发，支持数千个客户端同时读写</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.消息系统
 2.跟踪网站活动
 3.用于监控数据
-4.日志聚合
-5.采集日志
-6.提交日志
-7.流处理</t>
+4.日志采集
+5.流处理
+6.批处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,19 +164,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,17 +533,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" customWidth="1"/>
     <col min="4" max="4" width="58.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,40 +564,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
